--- a/Nuevo Enfoque Datos/dominanciaCrespo.xlsx
+++ b/Nuevo Enfoque Datos/dominanciaCrespo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\talento\Downloads\Nuevo Enfoque Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CBD7E2E-1172-4336-B6CF-6B1FBE6EE0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C92DD2-08FB-49CF-8798-3B484559021F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -119,7 +119,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,7 +425,7 @@
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B2" sqref="B2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -466,13 +466,13 @@
       <c r="B2" s="2">
         <v>5637</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -480,16 +480,16 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
